--- a/data/ZAF_costs.xlsx
+++ b/data/ZAF_costs.xlsx
@@ -1,25 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seama\Documents\GitHub\hbv-SouthAfrica\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422D4F19-B3B2-4D9B-8E5D-C128FCB28C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>iso3</t>
+  </si>
+  <si>
+    <t>cost_comp</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>ub</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>base_year</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>currency_conv</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>hepb_bd_univ</t>
+  </si>
+  <si>
+    <t>hepb_bd_tgt</t>
+  </si>
+  <si>
+    <t>hepb3</t>
+  </si>
+  <si>
+    <t>diag_lab</t>
+  </si>
+  <si>
+    <t>diag_rapid</t>
+  </si>
+  <si>
+    <t>hbv_dna</t>
+  </si>
+  <si>
+    <t>tdf_treat</t>
+  </si>
+  <si>
+    <t>tdf_pap</t>
+  </si>
+  <si>
+    <t>chb_cost</t>
+  </si>
+  <si>
+    <t>cc_cost</t>
+  </si>
+  <si>
+    <t>dc_cost</t>
+  </si>
+  <si>
+    <t>hcc_cost</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>dc_daly</t>
+  </si>
+  <si>
+    <t>hcc_daly</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +433,414 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="E2">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F2">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>65.19</v>
+      </c>
+      <c r="E3">
+        <v>26.54</v>
+      </c>
+      <c r="F3">
+        <v>157.34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="E4">
+        <v>28.38</v>
+      </c>
+      <c r="F4">
+        <v>165.18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>1877.4</v>
+      </c>
+      <c r="E5">
+        <v>1757.4</v>
+      </c>
+      <c r="F5">
+        <v>2202.96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>207.95</v>
+      </c>
+      <c r="E6">
+        <v>187.155</v>
+      </c>
+      <c r="F6">
+        <v>228.745</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>69.2</v>
+      </c>
+      <c r="E7">
+        <v>62.28</v>
+      </c>
+      <c r="F7">
+        <v>76.12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>879.25</v>
+      </c>
+      <c r="E8">
+        <v>791.32500000000005</v>
+      </c>
+      <c r="F8">
+        <v>967.17500000000007</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>1164.3785714285714</v>
+      </c>
+      <c r="E9">
+        <v>1047.9407142857142</v>
+      </c>
+      <c r="F9">
+        <v>1280.8164285714286</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>535.20000000000005</v>
+      </c>
+      <c r="E10">
+        <v>481.68000000000006</v>
+      </c>
+      <c r="F10">
+        <v>588.72000000000014</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>5282</v>
+      </c>
+      <c r="E11">
+        <v>4753.8</v>
+      </c>
+      <c r="F11">
+        <v>5810.2000000000007</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>6617</v>
+      </c>
+      <c r="E12">
+        <v>5955.3</v>
+      </c>
+      <c r="F12">
+        <v>7278.7000000000007</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>9414</v>
+      </c>
+      <c r="E13">
+        <v>8472.6</v>
+      </c>
+      <c r="F13">
+        <v>10355.400000000001</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>941082</v>
+      </c>
+      <c r="E14">
+        <v>846973.8</v>
+      </c>
+      <c r="F14">
+        <v>1035190.2000000001</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.123</v>
+      </c>
+      <c r="F15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.193</v>
+      </c>
+      <c r="F16">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>